--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3228E1-DB55-4434-BA00-83B96143900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF845DC-6F41-4C6C-BE6A-245195E0E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -358,6 +358,101 @@
     <t>　　　　　　　　</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>Login Servlet</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>入力必須、1~50文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>入力必須、8~16文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>押下時、ログイン判定を実行</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、パスワード再設定のページに飛ぶ。</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>href</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -1117,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1257,11 +1352,134 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,86 +1489,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1358,116 +1507,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,23 +1595,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15244</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2664</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EBE4F9-CB7C-75A1-0F73-4E323F0CECA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5135A69F-D108-DE58-09A6-EB95C7E75E84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,21 +1620,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="1091569"/>
-          <a:ext cx="7298814" cy="4699631"/>
+          <a:off x="666751" y="1190625"/>
+          <a:ext cx="6643687" cy="4581598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,6 +1684,55 @@
         <a:xfrm>
           <a:off x="0" y="1170214"/>
           <a:ext cx="8534297" cy="4068536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1819274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB2952-73ED-3713-D7D7-8CF16B583057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857376" y="1647825"/>
+          <a:ext cx="4786062" cy="3314699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2968,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
@@ -2980,19 +3127,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3004,192 +3151,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="109">
+      <c r="G2" s="90"/>
+      <c r="H2" s="93">
         <v>45877</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="80" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="81"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="71" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="112"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="112"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="71" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="77"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="113" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4180,12 +4327,11 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D10:J10"/>
@@ -4202,11 +4348,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4218,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4230,19 +4377,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4254,48 +4401,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="109">
+      <c r="G2" s="90"/>
+      <c r="H2" s="93">
         <v>45877</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5646,7 +5793,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5657,19 +5804,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5681,48 +5828,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="109">
+      <c r="G2" s="90"/>
+      <c r="H2" s="93">
         <v>45877</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7070,8 +7217,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7082,19 +7229,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7106,57 +7253,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="93">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="64"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="81"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="39"/>
@@ -7167,22 +7322,22 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -7191,10 +7346,10 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="91"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -7203,10 +7358,10 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="91"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="68"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -7215,10 +7370,10 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="91"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -7227,10 +7382,10 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="91"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="68"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -7239,10 +7394,10 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="91"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="64"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -7251,10 +7406,10 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="91"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="99" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="39"/>
@@ -7265,15 +7420,17 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="77"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="99" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -7281,10 +7438,12 @@
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="39"/>
@@ -7301,95 +7460,143 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="105" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="77"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="77"/>
+      <c r="A17" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="77"/>
+      <c r="A18" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="77"/>
+      <c r="A19" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="98" t="s">
+        <v>95</v>
+      </c>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>94</v>
+      </c>
       <c r="I20" s="39"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="76"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="76"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="79"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8370,24 +8577,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J13"/>
@@ -8399,12 +8598,21 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8422,133 +8630,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="81"/>
+      <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="90"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="91"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="91"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="97"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="115"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="80" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="81"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="99" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="39"/>
@@ -8556,7 +8764,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="49" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="39"/>
@@ -8571,10 +8779,10 @@
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="77"/>
+      <c r="T6" s="50"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="99" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="39"/>
@@ -8582,7 +8790,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="49" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="39"/>
@@ -8597,7 +8805,7 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-      <c r="T7" s="77"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -8796,33 +9004,33 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="114" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="105" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="92" t="s">
+      <c r="J15" s="105" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="40"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="105" t="s">
         <v>50</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="92" t="s">
+      <c r="O15" s="105" t="s">
         <v>51</v>
       </c>
       <c r="P15" s="39"/>
@@ -8838,33 +9046,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="98">
+      <c r="A16" s="107">
         <v>1</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="108" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="108" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="113" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="113" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="40"/>
-      <c r="L16" s="95" t="s">
+      <c r="L16" s="111" t="s">
         <v>59</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="111" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="39"/>
@@ -8880,33 +9088,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="98">
+      <c r="A17" s="107">
         <v>2</v>
       </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="108" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="108" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="113" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="113" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="40"/>
-      <c r="L17" s="95" t="s">
+      <c r="L17" s="111" t="s">
         <v>65</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="111" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="39"/>
@@ -8922,21 +9130,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="98"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="40"/>
-      <c r="C18" s="99"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="99"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="93"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="93"/>
+      <c r="J18" s="113"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="95"/>
+      <c r="L18" s="111"/>
       <c r="M18" s="39"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="95"/>
+      <c r="O18" s="111"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="33"/>
@@ -8950,21 +9158,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="99"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="99"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="93"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="93"/>
+      <c r="J19" s="113"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="95"/>
+      <c r="L19" s="111"/>
       <c r="M19" s="39"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="95"/>
+      <c r="O19" s="111"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="33"/>
@@ -8978,21 +9186,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="99"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="99"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="93"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="93"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="95"/>
+      <c r="L20" s="111"/>
       <c r="M20" s="39"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="95"/>
+      <c r="O20" s="111"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="33"/>
@@ -9006,21 +9214,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="99"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="99"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="93"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="93"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="95"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="39"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="95"/>
+      <c r="O21" s="111"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="33"/>
@@ -9034,21 +9242,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="99"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="99"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="93"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="113"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="95"/>
+      <c r="L22" s="111"/>
       <c r="M22" s="39"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="95"/>
+      <c r="O22" s="111"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="33"/>
@@ -9062,21 +9270,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="40"/>
-      <c r="C23" s="99"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="99"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="93"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="93"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="95"/>
+      <c r="L23" s="111"/>
       <c r="M23" s="39"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="95"/>
+      <c r="O23" s="111"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="33"/>
@@ -9090,21 +9298,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="99"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="99"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="93"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="39"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="93"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="95"/>
+      <c r="L24" s="111"/>
       <c r="M24" s="39"/>
       <c r="N24" s="40"/>
-      <c r="O24" s="95"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="33"/>
@@ -9118,21 +9326,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="98"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="40"/>
-      <c r="C25" s="99"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="99"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="93"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="39"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="93"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="95"/>
+      <c r="L25" s="111"/>
       <c r="M25" s="39"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="95"/>
+      <c r="O25" s="111"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="33"/>
@@ -9146,21 +9354,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="98"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="99"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="99"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="93"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="39"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="93"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="95"/>
+      <c r="L26" s="111"/>
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="95"/>
+      <c r="O26" s="111"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="33"/>
@@ -9174,21 +9382,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="98"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="99"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="99"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="93"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="39"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="93"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="95"/>
+      <c r="L27" s="111"/>
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
-      <c r="O27" s="95"/>
+      <c r="O27" s="111"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="33"/>
@@ -9202,21 +9410,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="99"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="99"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="93"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="39"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="93"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="95"/>
+      <c r="L28" s="111"/>
       <c r="M28" s="39"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="95"/>
+      <c r="O28" s="111"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="33"/>
@@ -9230,21 +9438,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="40"/>
-      <c r="C29" s="99"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="99"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="93"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="93"/>
+      <c r="J29" s="113"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="95"/>
+      <c r="L29" s="111"/>
       <c r="M29" s="39"/>
       <c r="N29" s="40"/>
-      <c r="O29" s="95"/>
+      <c r="O29" s="111"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="33"/>
@@ -9258,21 +9466,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="98"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="40"/>
-      <c r="C30" s="99"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="99"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="93"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="93"/>
+      <c r="J30" s="113"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="95"/>
+      <c r="L30" s="111"/>
       <c r="M30" s="39"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="95"/>
+      <c r="O30" s="111"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="33"/>
@@ -9286,23 +9494,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="64"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -10300,62 +10508,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -10380,62 +10588,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -5,27 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF845DC-6F41-4C6C-BE6A-245195E0E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA47FC33-AD45-4A05-9E4C-8C4DF53035CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
-    <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
-    <sheet name="画面設計書" sheetId="5" r:id="rId5"/>
-    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId6"/>
+    <sheet name="ユースケース記述ログイン" sheetId="2" r:id="rId2"/>
+    <sheet name="ユースケース記述メニュー" sheetId="7" r:id="rId3"/>
+    <sheet name="画面遷移図ログイン" sheetId="3" r:id="rId4"/>
+    <sheet name="画面遷移図メニュー" sheetId="8" r:id="rId5"/>
+    <sheet name="詳細クラス図ログイン" sheetId="4" r:id="rId6"/>
+    <sheet name="詳細クラス図メニュー" sheetId="9" r:id="rId7"/>
+    <sheet name="画面設計書ログイン" sheetId="5" r:id="rId8"/>
+    <sheet name="画面設計書メニュー" sheetId="10" r:id="rId9"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="99">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -453,6 +457,58 @@
     <t>href</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t xml:space="preserve">メニュー機能						</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>メニュー画面ではタスク登録とタスク一覧表示ができ、ログアウトボタンを押下するとログアウトできる。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1,メニュー画面を開く
+2,タスク登録画面のボタン、タスク一覧表示画面のボタン、ログアウトボタンを押下するとそれぞれの画面へ遷移する。</t>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,6 +585,13 @@
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1212,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1327,6 +1390,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,22 +1417,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,9 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1408,22 +1507,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,12 +1537,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,56 +1546,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1534,11 +1594,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1546,31 +1636,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,23 +1710,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>819047</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E29EF4-7C93-001B-C424-319E43F54DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E052BD-1D93-33D5-ECA4-94BE9CBAACDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,21 +1735,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1170214"/>
-          <a:ext cx="8534297" cy="4068536"/>
+          <a:off x="361951" y="1733550"/>
+          <a:ext cx="7105650" cy="3024399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,6 +1756,104 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>991068</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A4980C-1877-E66E-57A3-C5423F69F481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1437409"/>
+          <a:ext cx="8680340" cy="3861955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>881856</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8633A6-ACB9-4C64-26C1-889C0E50B907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="1285875"/>
+          <a:ext cx="6477794" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1716,6 +1874,55 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB2952-73ED-3713-D7D7-8CF16B583057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857376" y="1647825"/>
+          <a:ext cx="4786062" cy="3314699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1819274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F622D3C-AE9D-414A-9739-4B4F4892C746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,85 +2163,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2054,46 +2261,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="38"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2102,13 +2309,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3111,11 +3318,2046 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="54"/>
+      <c r="S1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="91"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="102"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="103"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="114"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="91"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="93"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="93"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="115">
+        <v>1</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A17" s="115">
+        <v>2</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="115"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="115"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="115"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="115"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="115"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="115"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="115"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="115"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="115"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="115"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="115"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="115"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="115"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A31" s="118"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
@@ -3127,19 +5369,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3151,192 +5393,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93">
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45877</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="46" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="54" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="50"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="54" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4327,11 +6569,12 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D10:J10"/>
@@ -4348,12 +6591,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4362,10 +6604,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E7B757-1480-4B5B-906C-C84E2220AA58}">
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="91"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
@@ -4377,19 +7867,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4401,48 +7891,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93">
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45877</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5788,11 +9278,1438 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8FD453-AC8E-4094-B4C4-7E89BCFEAA4C}">
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" activeCellId="1" sqref="H2:H4 G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
@@ -5804,19 +10721,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5828,48 +10745,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93">
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45877</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7210,14 +12127,1444 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FD9C8-7124-4E3E-95A2-F4E099567A33}">
+  <dimension ref="A1:K1000"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K35" s="120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="I36" s="120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
@@ -7229,19 +13576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7253,188 +13600,188 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93">
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45881</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="50"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="104"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="104"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="103"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="104"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="50"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="49" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
@@ -7443,11 +13790,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -7460,143 +13807,143 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="118" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="118" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="118" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="118" t="s">
+      <c r="F19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="118" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="118" t="s">
+      <c r="F20" s="38" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="93"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="50"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="97"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="108"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8577,6 +14924,21 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="A17:C17"/>
@@ -8593,21 +14955,6 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8616,944 +14963,419 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F857CAD-ECD5-4207-9BA2-FE2439A4817D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="20" width="8.140625" customWidth="1"/>
-    <col min="21" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="88" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="88" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="88" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="88" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="88" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="48"/>
-    </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="103"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="104"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="115"/>
-    </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="48"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="76"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="91"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="50"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="50"/>
-    </row>
-    <row r="8" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-    </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-    </row>
-    <row r="14" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
-        <v>46</v>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="76"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="103"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="76"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="103"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="103"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="76"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="103"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="103"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="76"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="103"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="93"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="98" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="105" t="s">
-        <v>47</v>
-      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="107">
-        <v>1</v>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="98" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-    </row>
-    <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="107">
-        <v>2</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="107"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="107"/>
+      <c r="J16" s="93"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="109" t="s">
+        <v>95</v>
+      </c>
       <c r="B20" s="40"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="I20" s="40"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="107"/>
+      <c r="J20" s="93"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="109"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="107"/>
+      <c r="J21" s="93"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="109"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="107"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="107"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="109"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="4:10" ht="12.75" customHeight="1">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
-    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="106"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="108"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -10507,146 +16329,42 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="31">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA47FC33-AD45-4A05-9E4C-8C4DF53035CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCABB3D2-1771-4E68-8A6D-936A15601C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="ユースケース記述ログイン" sheetId="2" r:id="rId2"/>
     <sheet name="ユースケース記述メニュー" sheetId="7" r:id="rId3"/>
-    <sheet name="画面遷移図ログイン" sheetId="3" r:id="rId4"/>
-    <sheet name="画面遷移図メニュー" sheetId="8" r:id="rId5"/>
-    <sheet name="詳細クラス図ログイン" sheetId="4" r:id="rId6"/>
-    <sheet name="詳細クラス図メニュー" sheetId="9" r:id="rId7"/>
-    <sheet name="画面設計書ログイン" sheetId="5" r:id="rId8"/>
-    <sheet name="画面設計書メニュー" sheetId="10" r:id="rId9"/>
-    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId10"/>
+    <sheet name="ユースケース記述パスワード" sheetId="11" r:id="rId4"/>
+    <sheet name="画面遷移図ログイン" sheetId="3" r:id="rId5"/>
+    <sheet name="画面遷移図メニュー" sheetId="8" r:id="rId6"/>
+    <sheet name="詳細クラス図ログイン" sheetId="4" r:id="rId7"/>
+    <sheet name="詳細クラス図メニュー" sheetId="9" r:id="rId8"/>
+    <sheet name="画面設計書ログイン" sheetId="5" r:id="rId9"/>
+    <sheet name="画面設計書メニュー" sheetId="10" r:id="rId10"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="102">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -506,6 +507,49 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード再設定機能						</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面ではユーザーIDとユーザー名を入力するとパスワードを新しく設定できる。</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1,パスワード再設定画面を開く。
+2,ユーザーIDとユーザー名</t>
+    <rPh sb="7" eb="12">
+      <t>サイセッテイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1393,6 +1437,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,58 +1464,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1507,16 +1521,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,6 +1557,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,20 +1572,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1616,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,29 +1653,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1618,26 +1671,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1809,22 +1853,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1102179</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>881856</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8633A6-ACB9-4C64-26C1-889C0E50B907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CCBD49-F374-280D-1B31-EBCCC6ACD2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,8 +1884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="1285875"/>
-          <a:ext cx="6477794" cy="4429125"/>
+          <a:off x="2122715" y="1455964"/>
+          <a:ext cx="3633107" cy="3373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,85 +2207,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2261,46 +2305,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="39"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2309,13 +2353,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3319,10 +3363,1418 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F857CAD-ECD5-4207-9BA2-FE2439A4817D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="110"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="110"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="102"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="99"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="101"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3332,182 +4784,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="53" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="53" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="53" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="91"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="102"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="109"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="103"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="110"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="114"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="119"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="90" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="91"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="50"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="92" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="93"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="52"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="92" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="93"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="52"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -3706,37 +5158,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="117" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="104" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="104" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="104" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="104" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="104" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -3748,37 +5200,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="115">
+      <c r="A16" s="111">
         <v>1</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="116" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="110" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="110" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="112" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="112" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -3790,37 +5242,37 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="115">
+      <c r="A17" s="111">
         <v>2</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="116" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="116" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="110" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="110" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="112" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="112" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -3832,23 +5284,23 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -3860,23 +5312,23 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -3888,23 +5340,23 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -3916,23 +5368,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -3944,23 +5396,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -3972,23 +5424,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -4000,23 +5452,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -4028,23 +5480,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -4056,23 +5508,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -4084,23 +5536,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -4112,23 +5564,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -4140,23 +5592,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="115"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -4168,23 +5620,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -4196,23 +5648,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="118"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="62"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -5210,6 +6662,118 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -5234,118 +6798,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5357,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5369,19 +6821,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -5393,192 +6845,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45877</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="91"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="94" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="64" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="93"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="64" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6569,12 +8021,11 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D10:J10"/>
@@ -6591,11 +8042,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6608,7 +8060,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:J13"/>
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6619,19 +8071,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -6643,190 +8095,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45881</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="91"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="94" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="64" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="93"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="64" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7817,21 +9269,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="A5:C5"/>
@@ -7844,6 +9281,21 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7852,10 +9304,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D59233-7263-4ABF-BAD8-FB2580341793}">
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="75"/>
+      <c r="B10" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
@@ -7867,19 +10567,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7891,48 +10591,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45877</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9278,7 +11978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8FD453-AC8E-4094-B4C4-7E89BCFEAA4C}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -9294,19 +11994,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -9318,48 +12018,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45881</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -10705,11 +13405,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
@@ -10721,19 +13421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -10745,48 +13445,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45877</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -12127,12 +14827,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FD9C8-7124-4E3E-95A2-F4E099567A33}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12143,19 +14843,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -12167,48 +14867,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45877</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -12564,12 +15264,12 @@
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="K35" s="120" t="s">
+      <c r="K35" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="I36" s="120" t="s">
+      <c r="I36" s="39" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13557,7 +16257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13576,19 +16276,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -13600,188 +16300,188 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
         <v>45881</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="88"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="91"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="93"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="103"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="103"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="103"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="103"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="103"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="103"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="93"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="92" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
@@ -13790,11 +16490,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -13807,18 +16507,18 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="104" t="s">
+      <c r="H16" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="93"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="38" t="s">
         <v>83</v>
       </c>
@@ -13831,18 +16531,18 @@
       <c r="G17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="38" t="s">
         <v>88</v>
       </c>
@@ -13855,18 +16555,18 @@
       <c r="G18" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="38" t="s">
         <v>85</v>
       </c>
@@ -13879,18 +16579,18 @@
       <c r="G19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="38" t="s">
         <v>85</v>
       </c>
@@ -13903,47 +16603,47 @@
       <c r="G20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="93"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="109"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="93"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="109"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="93"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="108"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -14924,23 +17624,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="A18:C18"/>
@@ -14955,1412 +17638,23 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
-  </mergeCells>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F857CAD-ECD5-4207-9BA2-FE2439A4817D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="87"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="91"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="93"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="103"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="103"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="103"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="103"/>
-    </row>
-    <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="103"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="93"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="93"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="109"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="93"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="109"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="93"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J13"/>
-    <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCABB3D2-1771-4E68-8A6D-936A15601C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA7242-FB0D-4470-AF9F-18968F3FD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="画面遷移図メニュー" sheetId="8" r:id="rId6"/>
     <sheet name="詳細クラス図ログイン" sheetId="4" r:id="rId7"/>
     <sheet name="詳細クラス図メニュー" sheetId="9" r:id="rId8"/>
-    <sheet name="画面設計書ログイン" sheetId="5" r:id="rId9"/>
-    <sheet name="画面設計書メニュー" sheetId="10" r:id="rId10"/>
-    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId11"/>
+    <sheet name="詳細クラス図パスワード" sheetId="13" r:id="rId9"/>
+    <sheet name="画面設計書ログイン" sheetId="5" r:id="rId10"/>
+    <sheet name="画面設計書メニュー" sheetId="10" r:id="rId11"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="102">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -541,7 +542,7 @@
   </si>
   <si>
     <t>1,パスワード再設定画面を開く。
-2,ユーザーIDとユーザー名</t>
+2,ユーザーIDとユーザー名を入力するとパスワードが変更する画面に遷移する。</t>
     <rPh sb="7" eb="12">
       <t>サイセッテイガメン</t>
     </rPh>
@@ -550,6 +551,18 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1464,22 +1477,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1521,22 +1567,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,12 +1597,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,41 +1606,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,24 +1629,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1653,17 +1648,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1671,17 +1678,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1901,6 +1914,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134711</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EC8FF5-0126-35CD-FC7B-17A05FCEC0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134711" y="1300843"/>
+          <a:ext cx="8347565" cy="3699782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>828676</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1946,7 +2014,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3363,7 +3431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F857CAD-ECD5-4207-9BA2-FE2439A4817D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3384,16 +3452,16 @@
       <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3405,65 +3473,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="41"/>
@@ -3474,22 +3542,22 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="52"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -3498,10 +3566,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="110"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -3510,10 +3578,10 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="110"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -3522,10 +3590,10 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="110"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -3534,10 +3602,10 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="110"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -3546,10 +3614,10 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="110"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -3558,10 +3626,10 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="110"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="99" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="41"/>
@@ -3572,15 +3640,15 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="52"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="99" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="93" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="41"/>
@@ -3595,7 +3663,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="41"/>
@@ -3612,17 +3680,17 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="105" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="41"/>
-      <c r="J16" s="52"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
       <c r="A17" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="98"/>
       <c r="D17" s="38" t="s">
         <v>83</v>
@@ -3636,17 +3704,17 @@
       <c r="G17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="98"/>
       <c r="D18" s="38" t="s">
         <v>88</v>
@@ -3660,17 +3728,17 @@
       <c r="G18" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="98"/>
       <c r="D19" s="38" t="s">
         <v>85</v>
@@ -3684,14 +3752,14 @@
       <c r="G19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="110" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="41"/>
@@ -3708,47 +3776,47 @@
       <c r="G20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="93" t="s">
         <v>94</v>
       </c>
       <c r="I20" s="41"/>
-      <c r="J20" s="52"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="102"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="52"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="102"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
+      <c r="J22" s="94"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A23" s="107"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="101"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4729,6 +4797,1427 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A1:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F857CAD-ECD5-4207-9BA2-FE2439A4817D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="94"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="104"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="94"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="94"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="94"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="110"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="94"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="110"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="94"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="107"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="109"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="I2:I4"/>
@@ -4745,21 +6234,6 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4768,7 +6242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -4784,133 +6258,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="90" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="90" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="90" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="90" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="50"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="109"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="93"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="110"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="119"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="115"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="48" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="50"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="99" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="41"/>
@@ -4918,7 +6392,7 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="93" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="41"/>
@@ -4933,10 +6407,10 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="52"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="41"/>
@@ -4944,7 +6418,7 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="93" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="41"/>
@@ -4959,7 +6433,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
-      <c r="T7" s="52"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -5158,7 +6632,7 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
@@ -5166,25 +6640,25 @@
         <v>40</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="105" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="105" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="105" t="s">
         <v>50</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="103" t="s">
+      <c r="O15" s="105" t="s">
         <v>51</v>
       </c>
       <c r="P15" s="41"/>
@@ -5200,33 +6674,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="111">
+      <c r="A16" s="116">
         <v>1</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="117" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="117" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="42"/>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="111" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="117" t="s">
+      <c r="J16" s="111" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="42"/>
-      <c r="L16" s="115" t="s">
+      <c r="L16" s="113" t="s">
         <v>59</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="115" t="s">
+      <c r="O16" s="113" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="41"/>
@@ -5242,33 +6716,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="111">
+      <c r="A17" s="116">
         <v>2</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="117" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="117" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="111" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="117" t="s">
+      <c r="J17" s="111" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="42"/>
-      <c r="L17" s="115" t="s">
+      <c r="L17" s="113" t="s">
         <v>65</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="115" t="s">
+      <c r="O17" s="113" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="41"/>
@@ -5284,21 +6758,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="111"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="112"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="112"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="117"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="117"/>
+      <c r="J18" s="111"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="115"/>
+      <c r="L18" s="113"/>
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="115"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="33"/>
@@ -5312,21 +6786,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="112"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="112"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="117"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="117"/>
+      <c r="J19" s="111"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="115"/>
+      <c r="L19" s="113"/>
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="115"/>
+      <c r="O19" s="113"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="33"/>
@@ -5340,21 +6814,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="111"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="112"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="112"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="117"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="117"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="115"/>
+      <c r="L20" s="113"/>
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="115"/>
+      <c r="O20" s="113"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="33"/>
@@ -5368,21 +6842,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="111"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="112"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="42"/>
-      <c r="E21" s="112"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="42"/>
-      <c r="G21" s="117"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="117"/>
+      <c r="J21" s="111"/>
       <c r="K21" s="42"/>
-      <c r="L21" s="115"/>
+      <c r="L21" s="113"/>
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
-      <c r="O21" s="115"/>
+      <c r="O21" s="113"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="33"/>
@@ -5396,21 +6870,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="111"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="112"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="112"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="42"/>
-      <c r="G22" s="117"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="117"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="115"/>
+      <c r="L22" s="113"/>
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
-      <c r="O22" s="115"/>
+      <c r="O22" s="113"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="33"/>
@@ -5424,21 +6898,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="111"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="112"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="117"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="117"/>
+      <c r="J23" s="111"/>
       <c r="K23" s="42"/>
-      <c r="L23" s="115"/>
+      <c r="L23" s="113"/>
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="115"/>
+      <c r="O23" s="113"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="33"/>
@@ -5452,21 +6926,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="111"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="112"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="112"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="117"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="117"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="115"/>
+      <c r="L24" s="113"/>
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="115"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
@@ -5480,21 +6954,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="111"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="112"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="112"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="117"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="117"/>
+      <c r="J25" s="111"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="115"/>
+      <c r="L25" s="113"/>
       <c r="M25" s="41"/>
       <c r="N25" s="42"/>
-      <c r="O25" s="115"/>
+      <c r="O25" s="113"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
@@ -5508,21 +6982,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="111"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="112"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="112"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="117"/>
+      <c r="G26" s="111"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="117"/>
+      <c r="J26" s="111"/>
       <c r="K26" s="42"/>
-      <c r="L26" s="115"/>
+      <c r="L26" s="113"/>
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
-      <c r="O26" s="115"/>
+      <c r="O26" s="113"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
@@ -5536,21 +7010,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="111"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="112"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="112"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="117"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="41"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="117"/>
+      <c r="J27" s="111"/>
       <c r="K27" s="42"/>
-      <c r="L27" s="115"/>
+      <c r="L27" s="113"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="115"/>
+      <c r="O27" s="113"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
@@ -5564,21 +7038,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="111"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="112"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="112"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="117"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="117"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="42"/>
-      <c r="L28" s="115"/>
+      <c r="L28" s="113"/>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
-      <c r="O28" s="115"/>
+      <c r="O28" s="113"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
@@ -5592,21 +7066,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="111"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="112"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="112"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="117"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="41"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="117"/>
+      <c r="J29" s="111"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="115"/>
+      <c r="L29" s="113"/>
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="115"/>
+      <c r="O29" s="113"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
@@ -5620,21 +7094,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="111"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="112"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="112"/>
+      <c r="E30" s="117"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="117"/>
+      <c r="G30" s="111"/>
       <c r="H30" s="41"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="117"/>
+      <c r="J30" s="111"/>
       <c r="K30" s="42"/>
-      <c r="L30" s="115"/>
+      <c r="L30" s="113"/>
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
-      <c r="O30" s="115"/>
+      <c r="O30" s="113"/>
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
@@ -5648,23 +7122,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="62"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -6662,62 +8136,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -6742,62 +8216,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6821,19 +8295,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -6845,192 +8319,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8021,11 +9495,12 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D10:J10"/>
@@ -8042,12 +9517,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -8071,19 +9545,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -8095,190 +9569,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9269,6 +10743,21 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="A5:C5"/>
@@ -9281,21 +10770,6 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -9307,8 +10781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D59233-7263-4ABF-BAD8-FB2580341793}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9319,19 +10793,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -9343,190 +10817,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -10517,6 +11991,21 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="A5:C5"/>
@@ -10529,21 +12018,6 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -10555,7 +12029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
@@ -10570,16 +12044,16 @@
       <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -10591,48 +12065,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -11982,7 +13456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8FD453-AC8E-4094-B4C4-7E89BCFEAA4C}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" activeCellId="1" sqref="H2:H4 G19"/>
     </sheetView>
   </sheetViews>
@@ -11997,16 +13471,16 @@
       <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -12018,48 +13492,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -13424,16 +14898,16 @@
       <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -13445,48 +14919,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -14846,16 +16320,16 @@
       <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -14867,48 +16341,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -16258,14 +17732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE70FC9-FD9D-4C10-B58D-8B9FC294D67F}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16277,18 +17748,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -16300,376 +17771,426 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="78" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="110"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="110"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="110"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="101"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K35" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="I36" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -17623,41 +19144,18 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H2:H4"/>
+  <mergeCells count="8">
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA7242-FB0D-4470-AF9F-18968F3FD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5F0B-96E2-4C85-844D-67AEC88A0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,16 @@
     <sheet name="詳細クラス図パスワード" sheetId="13" r:id="rId9"/>
     <sheet name="画面設計書ログイン" sheetId="5" r:id="rId10"/>
     <sheet name="画面設計書メニュー" sheetId="10" r:id="rId11"/>
-    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId12"/>
+    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId12"/>
+    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId13"/>
+    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="135">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -566,6 +568,315 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>57期</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/task_mgmt_system/login.jspへアクセスする</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワードがDBに登録されていないときのログインボタン動作</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：ho
+・パスワード：piyo</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン失敗画面に遷移する
+</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">異常系
+</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDとパスワードがDBに登録されているときのログイン動作</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：hoge
+・パスワード：piyo</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>DBの接続がされていない時の動作</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>xamppが起動していない時</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>エラーメッセージが出る</t>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDが24文字入力してできる動作</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ユーザID：memememememememememememe
+</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・パスワードmemememememememememememememememe</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワードが32文字入力してできる動作</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDが25文字以上入力できない動作</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワードが33文字以上入力できない動作</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/task_mgmt_system/menu.jspにアクセスする</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>メニュー画面を開く</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク登録画面ボタン・タスク一覧表示画面ボタン・ログアウトボタンが表示される</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク登録画面ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク登録画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押下する</t>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト画面に遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -651,6 +962,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1328,11 +1647,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1678,6 +1998,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1687,8 +2034,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1696,8 +2049,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{1E0CEBF7-47D1-4460-B0D4-7A547B1695B3}"/>
   </cellStyles>
@@ -2014,53 +2371,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>42613</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1819274</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F622D3C-AE9D-414A-9739-4B4F4892C746}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1857376" y="1647825"/>
-          <a:ext cx="4786062" cy="3314699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3437,7 +3749,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
@@ -4843,8 +5155,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6213,18 +6525,14 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D15:H15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A7:J13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:E1"/>
@@ -6232,28 +6540,33 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="7" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="20" width="8.140625" customWidth="1"/>
     <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6298,17 +6611,25 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="59"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="123">
+        <v>45890</v>
+      </c>
       <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
+      <c r="Q2" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="R2" s="57"/>
       <c r="S2" s="56"/>
       <c r="T2" s="103"/>
@@ -6320,14 +6641,14 @@
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="59"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="58"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="58"/>
@@ -6335,27 +6656,27 @@
       <c r="S3" s="58"/>
       <c r="T3" s="104"/>
     </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1">
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="78"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
       <c r="F4" s="61"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
       <c r="O4" s="60"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="61"/>
       <c r="S4" s="60"/>
-      <c r="T4" s="115"/>
+      <c r="T4" s="124"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="106" t="s">
@@ -6636,7 +6957,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="128" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="42"/>
@@ -6670,19 +6991,19 @@
         <v>53</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="116">
+      <c r="A16" s="125">
         <v>1</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="126" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="126" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="42"/>
@@ -6695,8 +7016,8 @@
         <v>58</v>
       </c>
       <c r="K16" s="42"/>
-      <c r="L16" s="113" t="s">
-        <v>59</v>
+      <c r="L16" s="127" t="s">
+        <v>103</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
@@ -6705,7 +7026,9 @@
       </c>
       <c r="P16" s="41"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="132">
+        <v>45890</v>
+      </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
@@ -6716,25 +7039,25 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="116">
+      <c r="A17" s="125">
         <v>2</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="117" t="s">
-        <v>61</v>
+      <c r="C17" s="126" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="129"/>
       <c r="G17" s="111" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
       <c r="J17" s="111" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="113" t="s">
@@ -6743,11 +7066,13 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
       <c r="O17" s="113" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="42"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="132">
+        <v>45890</v>
+      </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
@@ -6757,25 +7082,41 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="116"/>
+    <row r="18" spans="1:26" ht="44.25" customHeight="1">
+      <c r="A18" s="125">
+        <v>3</v>
+      </c>
       <c r="B18" s="42"/>
-      <c r="C18" s="117"/>
+      <c r="C18" s="126" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="42"/>
-      <c r="E18" s="117"/>
+      <c r="E18" s="126" t="s">
+        <v>110</v>
+      </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="111" t="s">
+        <v>106</v>
+      </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="111"/>
+      <c r="J18" s="111" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="42"/>
-      <c r="L18" s="113"/>
+      <c r="L18" s="113" t="s">
+        <v>65</v>
+      </c>
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="113"/>
+      <c r="O18" s="113" t="s">
+        <v>108</v>
+      </c>
       <c r="P18" s="41"/>
       <c r="Q18" s="42"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="132">
+        <v>45890</v>
+      </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
@@ -6785,25 +7126,41 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A19" s="125">
+        <v>4</v>
+      </c>
       <c r="B19" s="42"/>
-      <c r="C19" s="117"/>
+      <c r="C19" s="126" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="117"/>
+      <c r="E19" s="126" t="s">
+        <v>56</v>
+      </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="111"/>
+      <c r="G19" s="111" t="s">
+        <v>111</v>
+      </c>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="111"/>
+      <c r="J19" s="111" t="s">
+        <v>112</v>
+      </c>
       <c r="K19" s="42"/>
-      <c r="L19" s="113"/>
+      <c r="L19" s="113" t="s">
+        <v>65</v>
+      </c>
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="113"/>
+      <c r="O19" s="113" t="s">
+        <v>116</v>
+      </c>
       <c r="P19" s="41"/>
       <c r="Q19" s="42"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="132">
+        <v>45890</v>
+      </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -6813,25 +7170,41 @@
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A20" s="125">
+        <v>5</v>
+      </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="117"/>
+      <c r="C20" s="126" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="117"/>
+      <c r="E20" s="126" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="42"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="111" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="111" t="s">
+        <v>118</v>
+      </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="113"/>
+      <c r="L20" s="113" t="s">
+        <v>65</v>
+      </c>
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="113"/>
+      <c r="O20" s="113" t="s">
+        <v>116</v>
+      </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="132">
+        <v>45890</v>
+      </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
@@ -6841,12 +7214,2246 @@
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A21" s="125">
+        <v>5</v>
+      </c>
       <c r="B21" s="42"/>
-      <c r="C21" s="117"/>
+      <c r="C21" s="126" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="117"/>
+      <c r="E21" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A22" s="125">
+        <v>6</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+    </row>
+    <row r="23" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A23" s="125">
+        <v>6</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+    </row>
+    <row r="24" spans="1:26" ht="61.5" customHeight="1">
+      <c r="A24" s="125">
+        <v>7</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="125"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="125"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="125"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="125"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="125"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="125"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A31" s="125"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A32" s="125"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A33" s="130"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <hyperlinks>
+    <hyperlink ref="L16" r:id="rId1" xr:uid="{2DCD9636-EC2A-420B-A765-31C759E4E5E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68428E-5A95-4DA5-9416-73371F880C57}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="92"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="123">
+        <v>45890</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="124"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="94"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="94"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="125">
+        <v>1</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A17" s="125">
+        <v>2</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" ht="51" customHeight="1">
+      <c r="A18" s="125">
+        <v>3</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A19" s="125">
+        <v>4</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A20" s="125">
+        <v>5</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="132">
+        <v>45890</v>
+      </c>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="1:26" ht="48" customHeight="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="42"/>
       <c r="G21" s="111"/>
       <c r="H21" s="41"/>
@@ -6870,11 +9477,11 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="116"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="117"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="117"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="42"/>
       <c r="G22" s="111"/>
       <c r="H22" s="41"/>
@@ -6898,11 +9505,11 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="116"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="117"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="42"/>
       <c r="G23" s="111"/>
       <c r="H23" s="41"/>
@@ -6926,11 +9533,11 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="116"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="117"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="42"/>
       <c r="G24" s="111"/>
       <c r="H24" s="41"/>
@@ -6954,11 +9561,11 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="116"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="117"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="117"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="42"/>
       <c r="G25" s="111"/>
       <c r="H25" s="41"/>
@@ -6982,11 +9589,11 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="117"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="117"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="42"/>
       <c r="G26" s="111"/>
       <c r="H26" s="41"/>
@@ -7010,11 +9617,11 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="116"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="117"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="117"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="42"/>
       <c r="G27" s="111"/>
       <c r="H27" s="41"/>
@@ -7038,11 +9645,11 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="116"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="117"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="117"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="42"/>
       <c r="G28" s="111"/>
       <c r="H28" s="41"/>
@@ -7066,11 +9673,11 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="116"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="117"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="117"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="42"/>
       <c r="G29" s="111"/>
       <c r="H29" s="41"/>
@@ -7094,11 +9701,11 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="116"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="117"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="117"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="42"/>
       <c r="G30" s="111"/>
       <c r="H30" s="41"/>
@@ -7121,12 +9728,12 @@
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="119"/>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A31" s="130"/>
       <c r="B31" s="73"/>
-      <c r="C31" s="120"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="73"/>
-      <c r="E31" s="120"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="73"/>
       <c r="G31" s="112"/>
       <c r="H31" s="72"/>
@@ -8136,69 +10743,52 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="S2:T4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:T6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
@@ -8206,20 +10796,2004 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <hyperlinks>
+    <hyperlink ref="L16" r:id="rId1" xr:uid="{C50543DD-93A6-42EA-AD23-7A7E62289EC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF23E1-54C1-4C3C-9FBE-732A239DB681}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="92"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="124"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="94"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="94"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="125">
+        <v>1</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A17" s="125">
+        <v>2</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="125"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="125"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="125"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="125"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="125"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="125"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="125"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="125"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="125"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="125"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A31" s="130"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
     <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
@@ -8227,51 +12801,128 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8283,7 +12934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
@@ -9533,7 +14184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E7B757-1480-4B5B-906C-C84E2220AA58}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
@@ -12029,7 +16680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
@@ -14883,7 +19534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
@@ -17735,7 +22386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE70FC9-FD9D-4C10-B58D-8B9FC294D67F}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5F0B-96E2-4C85-844D-67AEC88A0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC252FA-B8EB-44DF-8842-912A9DCFF84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,30 @@
     <sheet name="詳細クラス図パスワード" sheetId="13" r:id="rId9"/>
     <sheet name="画面設計書ログイン" sheetId="5" r:id="rId10"/>
     <sheet name="画面設計書メニュー" sheetId="10" r:id="rId11"/>
-    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId12"/>
-    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId13"/>
-    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId14"/>
+    <sheet name="画面設計書パスワード" sheetId="16" r:id="rId12"/>
+    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId13"/>
+    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId14"/>
+    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="155">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -214,30 +228,13 @@
     <t>なし</t>
   </si>
   <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
-  </si>
-  <si>
     <t>ログイン画面へ遷移する</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>異常系</t>
   </si>
   <si>
     <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
   </si>
   <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
     <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
   </si>
   <si>
     <t>task_mgmt_system</t>
@@ -387,30 +384,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>入力必須、1~50文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>パスワード</t>
-  </si>
-  <si>
-    <t>入力必須、8~16文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>submit</t>
@@ -432,33 +409,6 @@
     <rPh sb="11" eb="13">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パスワード再設定</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、パスワード再設定のページに飛ぶ。</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>href</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -877,6 +827,278 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>http://localhost:8080/task_mgmt_system/password_reset.jspにアクセスする</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDとユーザー名がDBに登録されているときパスワード再設定の動作</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：memo
+・ユーザー名：寺西</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テラニシ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定ボタンを押下する</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了画面に遷移する。</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~24文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク登録画面</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、タスク登録画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、タスク一覧表示画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、ログアウト画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Password Servlet</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~32文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~20文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、ユーザーIDとユーザー名があっているかどうかを判定し実行</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザIDがDBに登録されていないときの再設定ボタン動作</t>
+    <rPh sb="20" eb="23">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定ボタンを押下する</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード再設定失敗画面に遷移する
+</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -885,7 +1107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -970,6 +1192,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1652,7 +1880,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1772,6 +2000,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2049,8 +2280,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2326,23 +2557,78 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>42613</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1819274</xdr:rowOff>
+      <xdr:rowOff>895732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB2952-73ED-3713-D7D7-8CF16B583057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B57A64-C828-47C3-A502-4EAD0D0B8C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166098" y="2495551"/>
+          <a:ext cx="4539502" cy="1543431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>949235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A72948-949B-FF3E-DE34-ADFE45AB1F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,8 +2644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857376" y="1647825"/>
-          <a:ext cx="4786062" cy="3314699"/>
+          <a:off x="2552700" y="2381251"/>
+          <a:ext cx="3743325" cy="1711234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2371,8 +2657,53 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>924208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB44AE-88E1-EA66-B96B-396969357E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2038350"/>
+          <a:ext cx="3581900" cy="2029108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,85 +2918,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2685,46 +3016,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2733,13 +3064,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3749,8 +4080,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3761,19 +4092,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3785,201 +4116,203 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="94"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="104"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="104"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="104"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="94"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -3992,143 +4325,131 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="94"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="38" t="s">
+      <c r="E18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="38" t="s">
+      <c r="H19" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="94"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5155,31 +5476,33 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5191,201 +5514,203 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="94"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="104"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="104"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="104"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="94"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -5398,143 +5723,131 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="94"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+        <v>132</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+        <v>134</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+        <v>136</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="94"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6550,15 +6863,1438 @@
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3474C-E956-4C45-B099-488E6D62C8BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6571,190 +8307,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="124">
         <v>45890</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="125"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -6953,37 +8689,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -6991,42 +8727,42 @@
         <v>53</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="126">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="132">
+      <c r="K16" s="43"/>
+      <c r="L16" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="40">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -7039,38 +8775,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="126">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="132">
+      <c r="D17" s="43"/>
+      <c r="E17" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="130"/>
+      <c r="G17" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="40">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -7083,38 +8819,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="126">
         <v>3</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="132">
+      <c r="D18" s="43"/>
+      <c r="E18" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -7127,38 +8863,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A19" s="125">
+      <c r="A19" s="126">
         <v>4</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="132">
+      <c r="F19" s="43"/>
+      <c r="G19" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -7171,38 +8907,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="126">
         <v>5</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="132">
+      <c r="F20" s="43"/>
+      <c r="G20" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -7215,38 +8951,38 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A21" s="125">
+      <c r="A21" s="126">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="132">
+      <c r="K21" s="43"/>
+      <c r="L21" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="40">
         <v>45890</v>
       </c>
       <c r="S21" s="33"/>
@@ -7259,38 +8995,38 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A22" s="125">
+      <c r="A22" s="126">
         <v>6</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="132">
+      <c r="F22" s="43"/>
+      <c r="G22" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="40">
         <v>45890</v>
       </c>
       <c r="S22" s="33"/>
@@ -7303,38 +9039,38 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A23" s="125">
+      <c r="A23" s="126">
         <v>6</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="132">
+      <c r="D23" s="43"/>
+      <c r="E23" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="40">
         <v>45890</v>
       </c>
       <c r="S23" s="33"/>
@@ -7347,38 +9083,38 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="61.5" customHeight="1">
-      <c r="A24" s="125">
+      <c r="A24" s="126">
         <v>7</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="132">
+      <c r="K24" s="43"/>
+      <c r="L24" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="40">
         <v>45890</v>
       </c>
       <c r="S24" s="33"/>
@@ -7391,23 +9127,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -7419,23 +9155,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -7447,23 +9183,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -7475,23 +9211,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -7503,23 +9239,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -7531,23 +9267,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -7559,23 +9295,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="42"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -7587,23 +9323,23 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -7615,23 +9351,23 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="130"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="73"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
       <c r="T33" s="37"/>
@@ -8643,6 +10379,8 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -8759,8 +10497,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="G25:I25"/>
@@ -8789,11 +10525,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68428E-5A95-4DA5-9416-73371F880C57}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -8807,188 +10543,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="124">
         <v>45890</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="125"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9187,37 +10923,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -9229,38 +10965,38 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="126">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="132">
+      <c r="K16" s="43"/>
+      <c r="L16" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="40">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -9273,38 +11009,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="126">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="132">
+      <c r="D17" s="43"/>
+      <c r="E17" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="40">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -9317,38 +11053,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="51" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="126">
         <v>3</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="132">
+      <c r="D18" s="43"/>
+      <c r="E18" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -9361,38 +11097,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A19" s="125">
+      <c r="A19" s="126">
         <v>4</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="132">
+      <c r="D19" s="43"/>
+      <c r="E19" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -9405,38 +11141,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="126">
         <v>5</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="132">
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -9449,23 +11185,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="48" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -9477,23 +11213,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -9505,23 +11241,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -9533,23 +11269,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -9561,23 +11297,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -9589,23 +11325,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -9617,23 +11353,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -9645,23 +11381,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -9673,23 +11409,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -9701,23 +11437,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -9729,23 +11465,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -10889,12 +12625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF23E1-54C1-4C3C-9FBE-732A239DB681}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10905,186 +12641,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="124">
+        <v>45891</v>
+      </c>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="125"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -11283,37 +13021,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -11325,37 +13063,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="126">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -11367,37 +13105,37 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="126">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -11408,24 +13146,38 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
+    <row r="18" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A18" s="126">
+        <v>2</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -11436,24 +13188,24 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
+    <row r="19" spans="1:26" ht="39" customHeight="1">
+      <c r="A19" s="126"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -11465,23 +13217,23 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -11493,23 +13245,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -11521,23 +13273,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -11549,23 +13301,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -11577,23 +13329,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -11605,23 +13357,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -11633,23 +13385,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -11661,23 +13413,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -11689,23 +13441,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -11717,23 +13469,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -11745,23 +13497,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -11773,23 +13525,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -12925,6 +14677,9 @@
     <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
+  <hyperlinks>
+    <hyperlink ref="L16" r:id="rId1" xr:uid="{EFE55139-D0B2-4AB7-B829-91AE7042F9D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
@@ -12946,19 +14701,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -12970,192 +14725,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45877</v>
-      </c>
-      <c r="I2" s="87" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -14196,19 +15951,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -14220,190 +15975,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -15444,19 +17199,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -15468,190 +17223,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -16692,19 +18447,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -16716,48 +18471,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -18119,19 +19874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -18143,48 +19898,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45881</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -19546,19 +21301,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -19570,48 +21325,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -19694,7 +21449,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -19815,7 +21570,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -20968,19 +22723,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -20992,48 +22747,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -21116,7 +22871,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -21237,7 +22992,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -21390,12 +23145,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
@@ -22398,19 +24153,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -22422,48 +24177,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -22546,7 +24301,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -22667,7 +24422,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -22820,12 +24575,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC252FA-B8EB-44DF-8842-912A9DCFF84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5F0B-96E2-4C85-844D-67AEC88A0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,16 @@
     <sheet name="詳細クラス図パスワード" sheetId="13" r:id="rId9"/>
     <sheet name="画面設計書ログイン" sheetId="5" r:id="rId10"/>
     <sheet name="画面設計書メニュー" sheetId="10" r:id="rId11"/>
-    <sheet name="画面設計書パスワード" sheetId="16" r:id="rId12"/>
-    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId13"/>
-    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId14"/>
-    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId15"/>
+    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId12"/>
+    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId13"/>
+    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="135">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -228,13 +214,30 @@
     <t>なし</t>
   </si>
   <si>
+    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
+  </si>
+  <si>
     <t>ログイン画面へ遷移する</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>異常系</t>
   </si>
   <si>
     <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
   </si>
   <si>
+    <t>・ユーザID：999999
+・パスワード：root</t>
+  </si>
+  <si>
     <t>ログインするボタンを押下する</t>
+  </si>
+  <si>
+    <t>エラー画面へ遷移する
+エラーの原因がユーザ名が未入力である旨通知する</t>
   </si>
   <si>
     <t>task_mgmt_system</t>
@@ -384,10 +387,30 @@
     <t>-</t>
   </si>
   <si>
+    <t>入力必須、1~50文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>パスワード</t>
+  </si>
+  <si>
+    <t>入力必須、8~16文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>submit</t>
@@ -409,6 +432,33 @@
     <rPh sb="11" eb="13">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、パスワード再設定のページに飛ぶ。</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>href</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -827,278 +877,6 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
-  <si>
-    <t>http://localhost:8080/task_mgmt_system/password_reset.jspにアクセスする</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザーIDとユーザー名がDBに登録されているときパスワード再設定の動作</t>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>・ユーザID：memo
-・ユーザー名：寺西</t>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テラニシ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>再設定ボタンを押下する</t>
-    <rPh sb="0" eb="3">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パスワード再設定完了画面に遷移する。</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>入力必須、1~24文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>menu.jsp</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>タスク登録画面</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、タスク登録画面のページに飛ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>タスク一覧表示画面</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、タスク一覧表示画面のページに飛ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、ログアウト画面のページに飛ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パスワード再設定画面</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Password Servlet</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>入力必須、1~32文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>入力必須、1~20文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>再設定</t>
-    <rPh sb="0" eb="3">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、ユーザーIDとユーザー名があっているかどうかを判定し実行</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザIDがDBに登録されていないときの再設定ボタン動作</t>
-    <rPh sb="20" eb="23">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>再設定ボタンを押下する</t>
-    <rPh sb="0" eb="3">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t xml:space="preserve">パスワード再設定失敗画面に遷移する
-</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
 </sst>
 </file>
 
@@ -1107,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1192,12 +970,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="MS PGothic"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1880,7 +1652,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2000,9 +1772,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2280,8 +2049,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2557,78 +2326,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22973</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>42613</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>895732</xdr:rowOff>
+      <xdr:rowOff>1819274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B57A64-C828-47C3-A502-4EAD0D0B8C77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2166098" y="2495551"/>
-          <a:ext cx="4539502" cy="1543431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>949235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A72948-949B-FF3E-DE34-ADFE45AB1F1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB2952-73ED-3713-D7D7-8CF16B583057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,8 +2358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="2381251"/>
-          <a:ext cx="3743325" cy="1711234"/>
+          <a:off x="1857376" y="1647825"/>
+          <a:ext cx="4786062" cy="3314699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,53 +2371,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>924208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB44AE-88E1-EA66-B96B-396969357E2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="2038350"/>
-          <a:ext cx="3581900" cy="2029108"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,85 +2587,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -3016,46 +2685,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="41" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="41"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="41"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -3064,13 +2733,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -4080,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:J19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4092,19 +3761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4116,203 +3785,201 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
-        <v>45891</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="95"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="105"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="105"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="105"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="95"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -4325,131 +3992,143 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="95"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="95"/>
+      <c r="E20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="95"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="95"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="110"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5476,33 +5155,31 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5514,203 +5191,201 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
-        <v>45891</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="95"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="105"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="105"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="105"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="95"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -5723,131 +5398,143 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="95"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="38" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="38" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="95"/>
+      <c r="A20" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="95"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="95"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="110"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6863,1438 +6550,15 @@
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3474C-E956-4C45-B099-488E6D62C8BF}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
-        <v>45891</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="105"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="95"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="95"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="95"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="110"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:Q17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8307,190 +6571,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="55" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="55" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="55" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="55" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="93"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="124">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="123">
         <v>45890</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="104"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="105"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="125"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="124"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="93"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="94" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="95"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="94" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="95"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -8689,37 +6953,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="129" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="106" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="106" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="106" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="106" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="106" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -8727,42 +6991,42 @@
         <v>53</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="126">
+      <c r="A16" s="125">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="127" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="112" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="40">
+      <c r="K16" s="42"/>
+      <c r="L16" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="132">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -8775,38 +7039,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="126">
+      <c r="A17" s="125">
         <v>2</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="127" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="40">
+      <c r="D17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="129"/>
+      <c r="G17" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="132">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -8819,38 +7083,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A18" s="126">
+      <c r="A18" s="125">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="127" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="40">
+      <c r="D18" s="42"/>
+      <c r="E18" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="132">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -8863,38 +7127,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A19" s="126">
+      <c r="A19" s="125">
         <v>4</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="127" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="40">
+      <c r="F19" s="42"/>
+      <c r="G19" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="132">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -8907,38 +7171,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A20" s="126">
+      <c r="A20" s="125">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="127" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="127" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="112" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="40">
+      <c r="F20" s="42"/>
+      <c r="G20" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="132">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -8951,38 +7215,38 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A21" s="126">
+      <c r="A21" s="125">
         <v>5</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="112" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="40">
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="132">
         <v>45890</v>
       </c>
       <c r="S21" s="33"/>
@@ -8995,38 +7259,38 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A22" s="126">
+      <c r="A22" s="125">
         <v>6</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="127" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="40">
+      <c r="F22" s="42"/>
+      <c r="G22" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="132">
         <v>45890</v>
       </c>
       <c r="S22" s="33"/>
@@ -9039,38 +7303,38 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A23" s="126">
+      <c r="A23" s="125">
         <v>6</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="127" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="40">
+      <c r="D23" s="42"/>
+      <c r="E23" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="132">
         <v>45890</v>
       </c>
       <c r="S23" s="33"/>
@@ -9083,38 +7347,38 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="61.5" customHeight="1">
-      <c r="A24" s="126">
+      <c r="A24" s="125">
         <v>7</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="112" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="40">
+      <c r="D24" s="42"/>
+      <c r="E24" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="132">
         <v>45890</v>
       </c>
       <c r="S24" s="33"/>
@@ -9127,23 +7391,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -9155,23 +7419,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -9183,23 +7447,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -9211,23 +7475,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -9239,23 +7503,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -9267,23 +7531,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -9295,23 +7559,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -9323,23 +7587,23 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -9351,23 +7615,23 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="74"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="73"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
       <c r="T33" s="37"/>
@@ -10379,8 +8643,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -10497,6 +8759,8 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="G25:I25"/>
@@ -10525,11 +8789,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68428E-5A95-4DA5-9416-73371F880C57}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -10543,188 +8807,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="55" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="55" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="55" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="55" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="93"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="124">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="123">
         <v>45890</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="104"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="105"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="125"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="124"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="93"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="94" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="95"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="94" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="95"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10923,37 +9187,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="129" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="106" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="106" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="106" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="106" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="106" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -10965,38 +9229,38 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="126">
+      <c r="A16" s="125">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="127" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="112" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="112" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="40">
+      <c r="K16" s="42"/>
+      <c r="L16" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="132">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -11009,38 +9273,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="126">
+      <c r="A17" s="125">
         <v>2</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="127" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="40">
+      <c r="D17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="132">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -11053,38 +9317,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="51" customHeight="1">
-      <c r="A18" s="126">
+      <c r="A18" s="125">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="127" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="40">
+      <c r="D18" s="42"/>
+      <c r="E18" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="132">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -11097,38 +9361,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A19" s="126">
+      <c r="A19" s="125">
         <v>4</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="127" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="40">
+      <c r="D19" s="42"/>
+      <c r="E19" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="132">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -11141,38 +9405,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="126">
+      <c r="A20" s="125">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="127" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="114" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="40">
+      <c r="F20" s="42"/>
+      <c r="G20" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="132">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -11185,23 +9449,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="48" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -11213,23 +9477,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -11241,23 +9505,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -11269,23 +9533,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -11297,23 +9561,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -11325,23 +9589,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -11353,23 +9617,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -11381,23 +9645,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -11409,23 +9673,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -11437,23 +9701,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -11465,23 +9729,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="74"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -12625,12 +10889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF23E1-54C1-4C3C-9FBE-732A239DB681}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12641,188 +10905,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="55" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="55" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="55" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="55" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="93"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="124">
-        <v>45891</v>
-      </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="104"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="105"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="125"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="124"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="93"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="94" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="95"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="94" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="95"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -13021,37 +11283,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="129" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="106" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="106" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="106" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="106" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="106" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -13063,37 +11325,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="126">
+      <c r="A16" s="125">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="127" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="112" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -13105,37 +11367,37 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="126">
+      <c r="A17" s="125">
         <v>2</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -13146,38 +11408,24 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A18" s="126">
-        <v>2</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -13188,24 +11436,24 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" ht="39" customHeight="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -13217,23 +11465,23 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -13245,23 +11493,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -13273,23 +11521,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -13301,23 +11549,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -13329,23 +11577,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -13357,23 +11605,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -13385,23 +11633,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -13413,23 +11661,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -13441,23 +11689,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -13469,23 +11717,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -13497,23 +11745,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -13525,23 +11773,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="74"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -14677,9 +12925,6 @@
     <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
-  <hyperlinks>
-    <hyperlink ref="L16" r:id="rId1" xr:uid="{EFE55139-D0B2-4AB7-B829-91AE7042F9D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
@@ -14701,19 +12946,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -14725,192 +12970,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="95"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -15951,19 +14196,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -15975,190 +14220,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="95"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -17199,19 +15444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -17223,190 +15468,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="95"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -18447,19 +16692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -18471,48 +16716,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -19874,19 +18119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -19898,48 +18143,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45881</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -21301,19 +19546,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -21325,48 +19570,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -21449,7 +19694,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -21570,7 +19815,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -22723,19 +20968,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -22747,48 +20992,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -22871,7 +21116,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -22992,7 +21237,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -23145,12 +21390,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
@@ -24153,19 +22398,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -24177,48 +22422,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="63">
+      <c r="A2" s="77"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="89"/>
+      <c r="I2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="91"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -24301,7 +22546,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -24422,7 +22667,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -24575,12 +22820,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>

--- a/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/テラニシ成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\テラニシ成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5F0B-96E2-4C85-844D-67AEC88A0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32393FD1-7C8F-4E17-A7D6-5CE560AB048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,30 @@
     <sheet name="詳細クラス図パスワード" sheetId="13" r:id="rId9"/>
     <sheet name="画面設計書ログイン" sheetId="5" r:id="rId10"/>
     <sheet name="画面設計書メニュー" sheetId="10" r:id="rId11"/>
-    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId12"/>
-    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId13"/>
-    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId14"/>
+    <sheet name="画面設計書パスワード" sheetId="16" r:id="rId12"/>
+    <sheet name="テスト仕様書兼結果報告書ログイン" sheetId="6" r:id="rId13"/>
+    <sheet name="テスト仕様書兼結果報告書 メニュー" sheetId="14" r:id="rId14"/>
+    <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -214,30 +228,13 @@
     <t>なし</t>
   </si>
   <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
-  </si>
-  <si>
     <t>ログイン画面へ遷移する</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>異常系</t>
   </si>
   <si>
     <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
   </si>
   <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
     <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
   </si>
   <si>
     <t>task_mgmt_system</t>
@@ -387,30 +384,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>入力必須、1~50文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>パスワード</t>
-  </si>
-  <si>
-    <t>入力必須、8~16文字以内</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクヒッス</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>submit</t>
@@ -432,33 +409,6 @@
     <rPh sb="11" eb="13">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パスワード再設定</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>押下時、パスワード再設定のページに飛ぶ。</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>href</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -877,6 +827,403 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>http://localhost:8080/task_mgmt_system/password_reset.jspにアクセスする</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDとユーザー名がDBに登録されているときパスワード再設定の動作</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：memo
+・ユーザー名：寺西</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テラニシ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定ボタンを押下する</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了画面に遷移する。</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~24文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク登録画面</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、タスク登録画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、タスク一覧表示画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、ログアウト画面のページに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Password Servlet</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~32文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力必須、1~20文字以内</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下時、ユーザーIDとユーザー名があっているかどうかを判定し実行</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザIDがDBに登録されていないときの再設定ボタン動作</t>
+    <rPh sb="20" eb="23">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>再設定ボタンを押下する</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード再設定失敗画面に遷移する
+</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザ名がDBに登録されていないときの再設定ボタン動作</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：me
+・ユーザー名：寺西</t>
+    <rPh sb="17" eb="19">
+      <t>テラニシ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザID：memo
+・ユーザー名：寺</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了画面に遷移する</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザーIDが25文字入力できない動作</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ユーザID：memememememememememememeｍ
+</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・パスワードmemememememememememememememememeｍ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザー名が20文字入力してできる動作</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パスワード再設定失敗画面に遷移する</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザー名：
+memememememememememe</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザー名が21文字入力できない動作</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ユーザー名：
+memememememememememem</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -885,7 +1232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -970,6 +1317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1652,7 +2005,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1772,6 +2125,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,6 +2342,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2048,9 +2407,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2326,23 +2682,78 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>42613</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1819274</xdr:rowOff>
+      <xdr:rowOff>895732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB2952-73ED-3713-D7D7-8CF16B583057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B57A64-C828-47C3-A502-4EAD0D0B8C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166098" y="2495551"/>
+          <a:ext cx="4539502" cy="1543431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>949235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A72948-949B-FF3E-DE34-ADFE45AB1F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,8 +2769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857376" y="1647825"/>
-          <a:ext cx="4786062" cy="3314699"/>
+          <a:off x="2552700" y="2381251"/>
+          <a:ext cx="3743325" cy="1711234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2371,8 +2782,53 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>924208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB44AE-88E1-EA66-B96B-396969357E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2038350"/>
+          <a:ext cx="3581900" cy="2029108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,85 +3043,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2685,46 +3141,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2733,13 +3189,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3749,8 +4205,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3761,19 +4217,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3785,201 +4241,203 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="94"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="104"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="104"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="104"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="94"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -3992,143 +4450,131 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="94"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="38" t="s">
+      <c r="E18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="38" t="s">
+      <c r="H19" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="94"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5155,31 +5601,33 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5191,201 +5639,203 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="94"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="104"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="104"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="104"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="94"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
@@ -5398,143 +5848,131 @@
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="94"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+        <v>132</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+        <v>134</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+        <v>136</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="94"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6550,15 +6988,1438 @@
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3474C-E956-4C45-B099-488E6D62C8BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45891</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="105"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="105"/>
+    </row>
+    <row r="13" spans="1:10" ht="150" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A21" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="111"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="95"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="108"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="110"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6571,190 +8432,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="125">
         <v>45890</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="126"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -6953,37 +8814,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -6991,42 +8852,42 @@
         <v>53</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="127">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="132">
+      <c r="K16" s="43"/>
+      <c r="L16" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="40">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -7039,38 +8900,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="127">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="132">
+      <c r="D17" s="43"/>
+      <c r="E17" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="131"/>
+      <c r="G17" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="40">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -7083,38 +8944,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="127">
         <v>3</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="132">
+      <c r="D18" s="43"/>
+      <c r="E18" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -7127,38 +8988,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A19" s="125">
+      <c r="A19" s="127">
         <v>4</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="132">
+      <c r="F19" s="43"/>
+      <c r="G19" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -7171,38 +9032,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="127">
         <v>5</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="132">
+      <c r="F20" s="43"/>
+      <c r="G20" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -7215,38 +9076,38 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A21" s="125">
+      <c r="A21" s="127">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="132">
+      <c r="D21" s="43"/>
+      <c r="E21" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="40">
         <v>45890</v>
       </c>
       <c r="S21" s="33"/>
@@ -7259,38 +9120,38 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A22" s="125">
+      <c r="A22" s="127">
         <v>6</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="132">
+      <c r="F22" s="43"/>
+      <c r="G22" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="40">
         <v>45890</v>
       </c>
       <c r="S22" s="33"/>
@@ -7303,38 +9164,38 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A23" s="125">
+      <c r="A23" s="127">
         <v>6</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="132">
+      <c r="D23" s="43"/>
+      <c r="E23" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="40">
         <v>45890</v>
       </c>
       <c r="S23" s="33"/>
@@ -7347,38 +9208,38 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="61.5" customHeight="1">
-      <c r="A24" s="125">
+      <c r="A24" s="127">
         <v>7</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="132">
+      <c r="K24" s="43"/>
+      <c r="L24" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="40">
         <v>45890</v>
       </c>
       <c r="S24" s="33"/>
@@ -7391,23 +9252,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -7419,23 +9280,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -7447,23 +9308,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -7475,23 +9336,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -7503,23 +9364,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -7531,23 +9392,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -7559,23 +9420,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="42"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -7587,23 +9448,23 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -7615,23 +9476,23 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="130"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="73"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
       <c r="T33" s="37"/>
@@ -8643,6 +10504,8 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -8759,8 +10622,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="G25:I25"/>
@@ -8789,12 +10650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68428E-5A95-4DA5-9416-73371F880C57}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8807,188 +10668,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="125">
         <v>45890</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="126"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9187,37 +11048,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -9229,38 +11090,38 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="127">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="132">
+      <c r="K16" s="43"/>
+      <c r="L16" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="40">
         <v>45890</v>
       </c>
       <c r="S16" s="33"/>
@@ -9273,38 +11134,38 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="127">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="132">
+      <c r="D17" s="43"/>
+      <c r="E17" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="40">
         <v>45890</v>
       </c>
       <c r="S17" s="33"/>
@@ -9317,38 +11178,38 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="51" customHeight="1">
-      <c r="A18" s="125">
+      <c r="A18" s="127">
         <v>3</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="132">
+      <c r="D18" s="43"/>
+      <c r="E18" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40">
         <v>45890</v>
       </c>
       <c r="S18" s="33"/>
@@ -9361,38 +11222,38 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A19" s="125">
+      <c r="A19" s="127">
         <v>4</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="132">
+      <c r="D19" s="43"/>
+      <c r="E19" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
         <v>45890</v>
       </c>
       <c r="S19" s="33"/>
@@ -9405,38 +11266,38 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="127">
         <v>5</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="132">
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
         <v>45890</v>
       </c>
       <c r="S20" s="33"/>
@@ -9449,23 +11310,23 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="48" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -9477,23 +11338,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -9505,23 +11366,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -9533,23 +11394,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -9561,23 +11422,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -9589,23 +11450,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -9617,23 +11478,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -9645,23 +11506,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -9673,23 +11534,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -9701,23 +11562,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -9729,23 +11590,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -10889,202 +12750,206 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF23E1-54C1-4C3C-9FBE-732A239DB681}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="7" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="20" width="8.140625" customWidth="1"/>
     <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="103"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="125">
+        <v>45891</v>
+      </c>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="104"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="124"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="126"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="92"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="93" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="94"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="93" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -11283,37 +13148,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="105" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="43"/>
+      <c r="L15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="105" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="15" t="s">
         <v>52</v>
       </c>
@@ -11325,38 +13190,40 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="125">
+      <c r="A16" s="127">
         <v>1</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="33"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="40">
+        <v>45891</v>
+      </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
@@ -11367,38 +13234,40 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="125">
+      <c r="A17" s="127">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="33"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="40">
+        <v>45891</v>
+      </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
@@ -11408,25 +13277,41 @@
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="33"/>
+    <row r="18" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A18" s="127">
+        <v>3</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="131"/>
+      <c r="G18" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40">
+        <v>45891</v>
+      </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
@@ -11436,25 +13321,41 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="33"/>
+    <row r="19" spans="1:26" ht="39" customHeight="1">
+      <c r="A19" s="127">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="131"/>
+      <c r="G19" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="40">
+        <v>45891</v>
+      </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -11464,25 +13365,41 @@
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="33"/>
+    <row r="20" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A20" s="127">
+        <v>5</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="40">
+        <v>45891</v>
+      </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
@@ -11492,25 +13409,41 @@
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="33"/>
+    <row r="21" spans="1:26" ht="52.5" customHeight="1">
+      <c r="A21" s="127">
+        <v>6</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="131"/>
+      <c r="G21" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="40">
+        <v>45891</v>
+      </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
@@ -11520,25 +13453,41 @@
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="33"/>
+    <row r="22" spans="1:26" ht="52.5" customHeight="1">
+      <c r="A22" s="127">
+        <v>7</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="40">
+        <v>45891</v>
+      </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -11548,25 +13497,41 @@
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="33"/>
+    <row r="23" spans="1:26" ht="40.5" customHeight="1">
+      <c r="A23" s="127">
+        <v>8</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="131"/>
+      <c r="G23" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="40">
+        <v>45891</v>
+      </c>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -11576,25 +13541,41 @@
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="33"/>
+    <row r="24" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A24" s="127">
+        <v>9</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="43"/>
+      <c r="L24" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="40">
+        <v>45891</v>
+      </c>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
@@ -11605,23 +13586,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -11633,23 +13614,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -11661,23 +13642,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -11689,23 +13670,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -11717,23 +13698,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -11745,23 +13726,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -11773,23 +13754,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -12925,6 +14906,9 @@
     <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
+  <hyperlinks>
+    <hyperlink ref="L16" r:id="rId1" xr:uid="{EFE55139-D0B2-4AB7-B829-91AE7042F9D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
@@ -12946,19 +14930,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -12970,192 +14954,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45877</v>
-      </c>
-      <c r="I2" s="87" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -14196,19 +16180,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -14220,190 +16204,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -15444,19 +17428,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -15468,190 +17452,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -16680,7 +18664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
@@ -16692,19 +18676,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -16716,48 +18700,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -18119,19 +20103,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -18143,48 +20127,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45881</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -19546,19 +21530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -19570,48 +21554,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -19694,7 +21678,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -19815,7 +21799,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -20968,19 +22952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -20992,48 +22976,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -21116,7 +23100,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -21237,7 +23221,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -21390,12 +23374,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
@@ -22398,19 +24382,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -22422,48 +24406,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="A2" s="78"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63">
         <v>45877</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="88"/>
+      <c r="I2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -22546,7 +24530,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
@@ -22667,7 +24651,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -22820,12 +24804,12 @@
     <row r="34" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="K35" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="I36" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1"/>
